--- a/03_Software/Sub_Controller_v01/connor/pre/lis/LIS2MDLTR寄存器.xlsx
+++ b/03_Software/Sub_Controller_v01/connor/pre/lis/LIS2MDLTR寄存器.xlsx
@@ -347,13 +347,19 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -412,8 +418,8 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -427,8 +433,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
@@ -760,7 +766,7 @@
     <col min="11" max="11" style="16" width="25.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,7 +801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="66">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -826,7 +832,7 @@
         <v>19</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="66">
       <c r="A3" s="1" t="s">
         <v>20</v>
       </c>
@@ -861,7 +867,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="49.5">
       <c r="A4" s="1" t="s">
         <v>28</v>
       </c>
@@ -894,7 +900,7 @@
       </c>
       <c r="K4" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="64.5">
       <c r="A5" s="1" t="s">
         <v>37</v>
       </c>
@@ -929,7 +935,7 @@
         <v>45</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="60">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="36">
       <c r="A6" s="1" t="s">
         <v>46</v>
       </c>
@@ -962,7 +968,7 @@
       </c>
       <c r="K6" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="1" t="s">
         <v>56</v>
       </c>
@@ -983,7 +989,7 @@
         <v>59</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="1" t="s">
         <v>60</v>
       </c>
@@ -1002,7 +1008,7 @@
       <c r="J8" s="6"/>
       <c r="K8" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="44.25">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="66">
       <c r="A9" s="1" t="s">
         <v>63</v>
       </c>
@@ -1035,7 +1041,7 @@
       </c>
       <c r="K9" s="8"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="1" t="s">
         <v>73</v>
       </c>
@@ -1054,7 +1060,7 @@
       <c r="J10" s="6"/>
       <c r="K10" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="1" t="s">
         <v>76</v>
       </c>
@@ -1071,7 +1077,7 @@
       <c r="J11" s="6"/>
       <c r="K11" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -1090,7 +1096,7 @@
       <c r="J12" s="6"/>
       <c r="K12" s="9"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="1" t="s">
         <v>81</v>
       </c>
@@ -1107,7 +1113,7 @@
       <c r="J13" s="6"/>
       <c r="K13" s="10"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="1" t="s">
         <v>83</v>
       </c>
